--- a/5/6/7/Depósito de liquidez por plazo 2021 - Diaria.xlsx
+++ b/5/6/7/Depósito de liquidez por plazo 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Serie</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,6 +507,14 @@
         <v>1535500</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>3571500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
